--- a/氣象性能評估工具V2/data/obs/backup/2016-06-25_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-25_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-25 00:00:00</t>
+    <t>2016-06-25-00</t>
   </si>
   <si>
     <t>23.8</t>
@@ -157,7 +157,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-25 01:00:00</t>
+    <t>2016-06-25-01</t>
   </si>
   <si>
     <t>24.0</t>
@@ -199,7 +199,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-25 02:00:00</t>
+    <t>2016-06-25-02</t>
   </si>
   <si>
     <t>26.7</t>
@@ -226,7 +226,7 @@
     <t>26.5</t>
   </si>
   <si>
-    <t>2016-06-25 03:00:00</t>
+    <t>2016-06-25-03</t>
   </si>
   <si>
     <t>24.1</t>
@@ -253,7 +253,7 @@
     <t>29.4</t>
   </si>
   <si>
-    <t>2016-06-25 04:00:00</t>
+    <t>2016-06-25-04</t>
   </si>
   <si>
     <t>23.6</t>
@@ -280,7 +280,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-25 05:00:00</t>
+    <t>2016-06-25-05</t>
   </si>
   <si>
     <t>23.9</t>
@@ -295,7 +295,7 @@
     <t>8.6</t>
   </si>
   <si>
-    <t>2016-06-25 06:00:00</t>
+    <t>2016-06-25-06</t>
   </si>
   <si>
     <t>29.3</t>
@@ -322,7 +322,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-25 07:00:00</t>
+    <t>2016-06-25-07</t>
   </si>
   <si>
     <t>30.7</t>
@@ -361,7 +361,7 @@
     <t>31.1</t>
   </si>
   <si>
-    <t>2016-06-25 08:00:00</t>
+    <t>2016-06-25-08</t>
   </si>
   <si>
     <t>24.3</t>
@@ -406,7 +406,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-25 09:00:00</t>
+    <t>2016-06-25-09</t>
   </si>
   <si>
     <t>33.4</t>
@@ -439,7 +439,7 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>2016-06-25 10:00:00</t>
+    <t>2016-06-25-10</t>
   </si>
   <si>
     <t>31.7</t>
@@ -469,7 +469,7 @@
     <t>33.9</t>
   </si>
   <si>
-    <t>2016-06-25 11:00:00</t>
+    <t>2016-06-25-11</t>
   </si>
   <si>
     <t>32.9</t>
@@ -496,7 +496,7 @@
     <t>33.2</t>
   </si>
   <si>
-    <t>2016-06-25 12:00:00</t>
+    <t>2016-06-25-12</t>
   </si>
   <si>
     <t>28.8</t>
@@ -523,7 +523,7 @@
     <t>34.4</t>
   </si>
   <si>
-    <t>2016-06-25 13:00:00</t>
+    <t>2016-06-25-13</t>
   </si>
   <si>
     <t>25.2</t>
@@ -538,7 +538,7 @@
     <t>10.5</t>
   </si>
   <si>
-    <t>2016-06-25 14:00:00</t>
+    <t>2016-06-25-14</t>
   </si>
   <si>
     <t>18.3</t>
@@ -550,13 +550,13 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-25 15:00:00</t>
+    <t>2016-06-25-15</t>
   </si>
   <si>
     <t>9.6</t>
   </si>
   <si>
-    <t>2016-06-25 16:00:00</t>
+    <t>2016-06-25-16</t>
   </si>
   <si>
     <t>30.1</t>
@@ -565,13 +565,13 @@
     <t>8.4</t>
   </si>
   <si>
-    <t>2016-06-25 17:00:00</t>
+    <t>2016-06-25-17</t>
   </si>
   <si>
     <t>16.7</t>
   </si>
   <si>
-    <t>2016-06-25 18:00:00</t>
+    <t>2016-06-25-18</t>
   </si>
   <si>
     <t>23.3</t>
@@ -583,7 +583,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-25 19:00:00</t>
+    <t>2016-06-25-19</t>
   </si>
   <si>
     <t>22.9</t>
@@ -592,7 +592,7 @@
     <t>15.3</t>
   </si>
   <si>
-    <t>2016-06-25 20:00:00</t>
+    <t>2016-06-25-20</t>
   </si>
   <si>
     <t>22.6</t>
@@ -604,7 +604,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-25 21:00:00</t>
+    <t>2016-06-25-21</t>
   </si>
   <si>
     <t>22.3</t>
@@ -616,13 +616,13 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-25 22:00:00</t>
+    <t>2016-06-25-22</t>
   </si>
   <si>
     <t>14.6</t>
   </si>
   <si>
-    <t>2016-06-25 23:00:00</t>
+    <t>2016-06-25-23</t>
   </si>
   <si>
     <t>14.1</t>
